--- a/Mifos Automation Excels/Client/3031-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%INTEREST-Regular-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/3031-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%INTEREST-Regular-CASH-Newcreateloan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -103,57 +103,6 @@
     <t>Head Office</t>
   </si>
   <si>
-    <t>clickonnewloan</t>
-  </si>
-  <si>
-    <t>newloan</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>submitteddateon</t>
-  </si>
-  <si>
-    <t>disbursementon</t>
-  </si>
-  <si>
-    <t>maximumallowedoutstandingbalance</t>
-  </si>
-  <si>
-    <t>loantrancheclick</t>
-  </si>
-  <si>
-    <t>plus 0</t>
-  </si>
-  <si>
-    <t>expecteddisbursementon</t>
-  </si>
-  <si>
-    <t>principal</t>
-  </si>
-  <si>
-    <t>submitloan</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>clickonapprove</t>
-  </si>
-  <si>
-    <t>approve</t>
-  </si>
-  <si>
-    <t>approveddate</t>
-  </si>
-  <si>
-    <t>submitapprove</t>
-  </si>
-  <si>
-    <t>approveloan</t>
-  </si>
-  <si>
     <t>clickondisburse</t>
   </si>
   <si>
@@ -167,9 +116,6 @@
   </si>
   <si>
     <t>disburseloan</t>
-  </si>
-  <si>
-    <t>3000-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular</t>
   </si>
   <si>
     <t>Repayment</t>
@@ -179,18 +125,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -283,25 +224,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -314,9 +246,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,112 +575,16 @@
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>50</v>
+      <c r="B2" s="6">
+        <v>42064</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="7">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="7">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="7">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="7">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="7">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -757,10 +594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +611,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -794,82 +631,83 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>5000</v>
-      </c>
-      <c r="B2" s="12">
-        <v>836.76</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>4163.24</v>
-      </c>
-      <c r="F2" s="12">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="7">
+        <v>837.27</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>9162.73</v>
+      </c>
+      <c r="F2" s="7">
         <v>849.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>179.66</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>561.12</v>
+      </c>
+      <c r="B3" s="7">
         <v>50.96</v>
       </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>128.69999999999999</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>510.16</v>
+      </c>
+      <c r="F3" s="7">
         <v>38.32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>200</v>
-      </c>
-      <c r="B5" s="12">
-        <v>100</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>100</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -879,10 +717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +736,7 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -956,309 +794,575 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8">
         <v>42005</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="14">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9">
         <v>5000</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="7">
         <v>31</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="8">
         <v>42036</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="8">
         <v>42036</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="12">
+      <c r="E3" s="11"/>
+      <c r="F3" s="7">
         <v>836.76</v>
       </c>
-      <c r="G3" s="15">
-        <v>4163.24</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="G3" s="10">
+        <v>4162.7299999999996</v>
+      </c>
+      <c r="H3" s="7">
         <v>50.96</v>
       </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L3" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12">
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="K3" s="7">
+        <v>888.23</v>
+      </c>
+      <c r="L3" s="7">
+        <v>888.23</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B5" s="7">
         <v>28</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C5" s="8">
         <v>42064</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <v>849.4</v>
       </c>
-      <c r="G4" s="15">
-        <v>3313.84</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="G5" s="10">
+        <v>8313.33</v>
+      </c>
+      <c r="H5" s="7">
         <v>38.32</v>
       </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>100</v>
-      </c>
-      <c r="K4" s="12">
-        <v>987.72</v>
-      </c>
-      <c r="L4" s="12">
-        <v>100</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="K5" s="7">
+        <v>888.1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>888.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B6" s="7">
         <v>31</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C6" s="8">
         <v>42095</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12">
-        <v>845.29</v>
-      </c>
-      <c r="G5" s="15">
-        <v>2468.5500000000002</v>
-      </c>
-      <c r="H5" s="12">
-        <v>42.43</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>100</v>
-      </c>
-      <c r="K5" s="12">
-        <v>987.72</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>794.34</v>
+      </c>
+      <c r="G6" s="10">
+        <v>7518.99</v>
+      </c>
+      <c r="H6" s="7">
+        <v>93.38</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B7" s="7">
         <v>30</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C7" s="8">
         <v>42125</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12">
-        <v>863.37</v>
-      </c>
-      <c r="G6" s="15">
-        <v>1605.18</v>
-      </c>
-      <c r="H6" s="12">
-        <v>24.35</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12">
-        <v>0</v>
-      </c>
-      <c r="P6" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>813.56</v>
+      </c>
+      <c r="G7" s="10">
+        <v>6705.43</v>
+      </c>
+      <c r="H7" s="7">
+        <v>74.16</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B8" s="7">
         <v>31</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C8" s="8">
         <v>42156</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>819.38</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5886.05</v>
+      </c>
+      <c r="H8" s="7">
+        <v>68.34</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8">
+        <v>42186</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>829.67</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5056.38</v>
+      </c>
+      <c r="H9" s="7">
+        <v>58.05</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>31</v>
+      </c>
+      <c r="C10" s="8">
+        <v>42217</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
+        <v>836.19</v>
+      </c>
+      <c r="G10" s="10">
+        <v>4220.1899999999996</v>
+      </c>
+      <c r="H10" s="7">
+        <v>51.53</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8">
+        <v>42248</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
+        <v>844.71</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3375.48</v>
+      </c>
+      <c r="H11" s="7">
+        <v>43.01</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8">
+        <v>42278</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
+        <v>854.43</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2521.0500000000002</v>
+      </c>
+      <c r="H12" s="7">
+        <v>33.29</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8">
+        <v>42309</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <v>862.03</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1659.02</v>
+      </c>
+      <c r="H13" s="7">
+        <v>25.69</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8">
+        <v>42339</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
         <v>871.36</v>
       </c>
-      <c r="G7" s="12">
-        <v>733.82</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="G14" s="7">
+        <v>787.66</v>
+      </c>
+      <c r="H14" s="7">
         <v>16.36</v>
       </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12">
-        <v>30</v>
-      </c>
-      <c r="C8" s="13">
-        <v>42186</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12">
-        <v>733.82</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>7.24</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <v>741.06</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12">
-        <v>0</v>
-      </c>
-      <c r="P8" s="12">
-        <v>741.06</v>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
+        <v>31</v>
+      </c>
+      <c r="C15" s="8">
+        <v>42370</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>787.66</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>795.69</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>795.69</v>
       </c>
     </row>
   </sheetData>
@@ -1269,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,72 +1427,106 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>8</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="7">
+        <v>1740</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="8">
+        <v>42064</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1745</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8">
         <v>42036</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="12">
-        <v>987.72</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="D3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="7">
+        <v>888.23</v>
+      </c>
+      <c r="F3" s="7">
         <v>836.76</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G3" s="7">
         <v>50.96</v>
       </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>100</v>
-      </c>
-      <c r="J2" s="15">
-        <v>4163.24</v>
-      </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>678</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C4" s="8">
         <v>42005</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E4" s="9">
         <v>5000</v>
       </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
         <v>5000</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3031-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%INTEREST-Regular-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/3031-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%INTEREST-Regular-CASH-Newcreateloan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -553,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,14 +636,14 @@
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>837.27</v>
+        <v>836.76</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9162.73</v>
+        <v>9163.24</v>
       </c>
       <c r="F2" s="7">
         <v>849.4</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>561.12</v>
+        <v>561.21</v>
       </c>
       <c r="B3" s="7">
         <v>50.96</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>510.16</v>
+        <v>510.25</v>
       </c>
       <c r="F3" s="7">
         <v>38.32</v>
@@ -692,10 +692,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0.38</v>
+        <v>0.89</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -720,7 +720,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +838,7 @@
         <v>836.76</v>
       </c>
       <c r="G3" s="10">
-        <v>4162.7299999999996</v>
+        <v>4163.24</v>
       </c>
       <c r="H3" s="7">
         <v>50.96</v>
@@ -908,7 +908,7 @@
         <v>849.4</v>
       </c>
       <c r="G5" s="10">
-        <v>8313.33</v>
+        <v>8313.84</v>
       </c>
       <c r="H5" s="7">
         <v>38.32</v>
@@ -948,13 +948,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>794.34</v>
+        <v>794.33</v>
       </c>
       <c r="G6" s="10">
-        <v>7518.99</v>
+        <v>7519.51</v>
       </c>
       <c r="H6" s="7">
-        <v>93.38</v>
+        <v>93.39</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -991,13 +991,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>813.56</v>
+        <v>813.55</v>
       </c>
       <c r="G7" s="10">
-        <v>6705.43</v>
+        <v>6705.96</v>
       </c>
       <c r="H7" s="7">
-        <v>74.16</v>
+        <v>74.17</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1034,13 +1034,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>819.38</v>
+        <v>819.37</v>
       </c>
       <c r="G8" s="10">
-        <v>5886.05</v>
+        <v>5886.59</v>
       </c>
       <c r="H8" s="7">
-        <v>68.34</v>
+        <v>68.349999999999994</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1077,13 +1077,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>829.67</v>
+        <v>829.66</v>
       </c>
       <c r="G9" s="10">
-        <v>5056.38</v>
+        <v>5056.93</v>
       </c>
       <c r="H9" s="7">
-        <v>58.05</v>
+        <v>58.06</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1120,13 +1120,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>836.19</v>
+        <v>836.18</v>
       </c>
       <c r="G10" s="10">
-        <v>4220.1899999999996</v>
+        <v>4220.75</v>
       </c>
       <c r="H10" s="7">
-        <v>51.53</v>
+        <v>51.54</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1163,13 +1163,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>844.71</v>
+        <v>844.7</v>
       </c>
       <c r="G11" s="10">
-        <v>3375.48</v>
+        <v>3376.05</v>
       </c>
       <c r="H11" s="7">
-        <v>43.01</v>
+        <v>43.02</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1206,13 +1206,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>854.43</v>
+        <v>854.42</v>
       </c>
       <c r="G12" s="10">
-        <v>2521.0500000000002</v>
+        <v>2521.63</v>
       </c>
       <c r="H12" s="7">
-        <v>33.29</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1249,13 +1249,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>862.03</v>
+        <v>862.02</v>
       </c>
       <c r="G13" s="10">
-        <v>1659.02</v>
+        <v>1659.61</v>
       </c>
       <c r="H13" s="7">
-        <v>25.69</v>
+        <v>25.7</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1292,13 +1292,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>871.36</v>
+        <v>871.35</v>
       </c>
       <c r="G14" s="7">
-        <v>787.66</v>
+        <v>788.26</v>
       </c>
       <c r="H14" s="7">
-        <v>16.36</v>
+        <v>16.37</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1335,7 +1335,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
-        <v>787.66</v>
+        <v>788.26</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <v>795.69</v>
+        <v>796.29</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="7">
-        <v>795.69</v>
+        <v>796.29</v>
       </c>
     </row>
   </sheetData>
@@ -1375,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>1740</v>
+        <v>3241</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1454,15 +1454,15 @@
       <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="9">
-        <v>10000</v>
+      <c r="J2" s="10">
+        <v>9163.24</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>1745</v>
+        <v>3239</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1488,15 +1488,15 @@
       <c r="I3" s="7">
         <v>0.51</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
+      <c r="J3" s="10">
+        <v>4163.24</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>678</v>
+        <v>3233</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/3031-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%INTEREST-Regular-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/3031-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%INTEREST-Regular-CASH-Newcreateloan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -717,10 +717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,12 +738,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -783,17 +784,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -819,8 +821,9 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -858,14 +861,15 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -890,9 +894,10 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -928,14 +933,15 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
         <v>888.1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -971,14 +977,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1014,14 +1021,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1057,14 +1065,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1100,14 +1109,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1143,14 +1153,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1186,14 +1197,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1229,14 +1241,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1272,14 +1285,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1315,14 +1329,15 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1358,10 +1373,11 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
         <v>796.29</v>
       </c>
     </row>
@@ -1375,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
